--- a/FLD/results/training_results.xlsx
+++ b/FLD/results/training_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,10 +556,8 @@
           <t>mimic</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7564667</t>
-        </is>
+      <c r="D2" t="n">
+        <v>7564667</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
@@ -613,6 +611,81 @@
       </c>
       <c r="U2" t="n">
         <v>0.09660174568121555</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-27 02:54:24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FLD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>physionet</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>746293</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>32</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>24</v>
+      </c>
+      <c r="P3" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.003694045622257404</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.06077874317767195</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.003289532847702503</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.003767945662557877</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.06138367586384736</v>
       </c>
     </row>
   </sheetData>
